--- a/data/trans_dic/P37_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que duerme las horas de sueño recomendadas para su edad</t>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,02%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>60,44%</t>
+          <t>63,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>55,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>60,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>57,14%</t>
+          <t>50,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>60,43%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,24%</t>
+          <t>57,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57,18%</t>
+          <t>58,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>58,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>60,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>50,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>59,56%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>59,43%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>50,72%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52,45; 69,41</t>
+          <t>53,77; 74,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>52,46; 66,61</t>
+          <t>44,95; 61,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 67,9</t>
+          <t>51,98; 67,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,52; 65,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,1; 61,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,43; 62,17</t>
+          <t>31,97; 61,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,0; 66,4</t>
+          <t>47,83; 64,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,57; 59,07</t>
+          <t>51,65; 63,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,97; 63,16</t>
+          <t>52,94; 63,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,41; 62,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55,79; 65,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,62; 60,61</t>
+          <t>42,34; 59,01</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>53,47; 66,13</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>51,03; 61,14</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 63,37</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>41,88; 58,21</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,18%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>66,49%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62,52%</t>
+          <t>61,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>57,51%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>60,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62,84%</t>
+          <t>56,73%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>64,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>57,15%</t>
+          <t>55,66%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>62,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>62,32%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>59,14%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>57,17%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,95; 68,84</t>
+          <t>55,03; 68,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,14; 70,77</t>
+          <t>59,48; 69,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,06; 67,37</t>
+          <t>56,36; 65,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,23; 64,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,98; 65,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,7; 66,32</t>
+          <t>51,55; 64,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,33; 61,49</t>
+          <t>56,64; 67,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,51; 58,96</t>
+          <t>55,71; 64,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,35; 65,93</t>
+          <t>52,56; 60,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,95; 67,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>56,88; 63,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>54,01; 60,48</t>
+          <t>50,12; 61,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>58,02; 66,09</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>58,83; 65,83</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>55,68; 62,18</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>52,59; 61,08</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>69,06%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68,77%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>69,66%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>69,55%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>69,83%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,43%</t>
+          <t>63,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>63,91%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>63,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>63,35%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>64,48%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>68,74%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>65,87%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>66,42%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>66,78%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>61,16%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>64,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,28; 75,08</t>
+          <t>62,27; 75,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,96; 74,56</t>
+          <t>63,93; 73,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,33; 74,51</t>
+          <t>64,76; 73,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,35; 69,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,99; 76,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,41; 68,08</t>
+          <t>57,37; 69,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>59,83; 68,1</t>
+          <t>63,15; 73,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,63; 66,61</t>
+          <t>58,31; 67,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66,92; 74,1</t>
+          <t>59,5; 67,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,53; 69,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63,63; 69,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>55,73; 66,04</t>
+          <t>59,82; 69,76</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>64,11; 72,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>62,43; 69,17</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>63,28; 69,36</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>59,91; 68,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>70,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,54%</t>
+          <t>64,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>60,33%</t>
+          <t>61,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>63,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>61,82%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>61,76%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>65,85%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>63,25%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,78; 68,85</t>
+          <t>56,78; 67,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,02; 68,9</t>
+          <t>64,36; 75,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,18; 67,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,92; 62,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,66; 65,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,84; 64,05</t>
+          <t>58,54; 70,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,85; 63,05</t>
+          <t>56,97; 66,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,22; 58,83</t>
+          <t>55,49; 65,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61,95; 66,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,97; 65,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>60,48; 64,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>55,15; 60,1</t>
+          <t>55,74; 67,64</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>57,99; 64,93</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>61,7; 69,52</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>58,77; 67,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63,83%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>65,6%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>63,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>60,73%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62,54%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59,38%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>58,71%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>63,18%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>63,09%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>61,6%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>59,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60,32; 66,95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62,66; 68,33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60,69; 66,72</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56,72; 64,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59,43; 65,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58,03; 63,06</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56,81; 61,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55,65; 61,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>60,88; 65,07</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>61,1; 64,83</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>59,66; 63,58</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 61,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que duerme las horas de sueño recomendadas para su edad (tasa de respuesta: 99,02%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>215213</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>284681</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>430360</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>220990</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>226130</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>352063</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>517352</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>319054</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>441343</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>636744</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>947712</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>540045</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>182391; 251889</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>232574; 319768</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>369425; 478829</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>140319; 269792</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>192152; 260053</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>315369; 388440</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>467920; 557989</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>264960; 369308</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>396173; 490009</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>575612; 689634</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>866203; 1010493</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>445928; 619757</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>417.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>609.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>717.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>556122</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>751639</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>939632</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>625494</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>586370</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>708919</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>817939</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>594776</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1142492</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1460557</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1757571</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1220270</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>488066; 608448</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>693616; 807372</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>862252; 1005100</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>549487; 688288</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>536735; 638674</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>655909; 758758</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>757787; 870045</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>535618; 653687</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1064364; 1212410</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1378607; 1542642</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1654526; 1847728</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1122594; 1303811</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>523.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>672.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>494185</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>577751</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>756194</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>531102</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>521777</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>590733</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>728840</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>573508</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1015963</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1168485</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1485034</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1104610</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>445578; 538745</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>537112; 620384</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>702994; 800134</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>476634; 580766</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>481429; 560304</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>544448; 631267</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>684523; 772829</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>532046; 620431</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>947462; 1071751</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1107478; 1227065</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1414891; 1550930</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1030630; 1173052</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>605.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>869665</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>591601</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>692716</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>835981</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>452615</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>590261</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1705646</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1044216</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1282977</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>796812; 946633</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>539829; 636384</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>628446; 754927</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>773742; 898573</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>414539; 491574</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>532239; 645857</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1601526; 1793106</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>978501; 1102458</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1192119; 1370223</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>729.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>861.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>823.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>632.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>823.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>970.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>959.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>738.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1552.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1831.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1782.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1370.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2135185</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2205672</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2126185</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2070302</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2170258</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2104330</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2064131</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2077599</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4305444</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>4310002</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4190317</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>4147901</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2017735; 2239646</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2107018; 2297445</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2018674; 2219107</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1933661; 2197419</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2062163; 2263495</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2013092; 2187265</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1974657; 2140512</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1969245; 2183695</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4148783; 4434899</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4173751; 4428902</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4057998; 4324720</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>3970413; 4302632</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
